--- a/Data/phenotypic data/RawData/2011 Data/BogUpper5-R8.xlsx
+++ b/Data/phenotypic data/RawData/2011 Data/BogUpper5-R8.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="28125"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="160" yWindow="100" windowWidth="28760" windowHeight="18140"/>
+    <workbookView xWindow="160" yWindow="100" windowWidth="25440" windowHeight="18140"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -53,7 +53,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4981" uniqueCount="299">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4977" uniqueCount="293">
   <si>
     <t>Date measured:</t>
   </si>
@@ -266,9 +266,6 @@
   </si>
   <si>
     <t>*2.22</t>
-  </si>
-  <si>
-    <t>mop</t>
   </si>
   <si>
     <t>*1.3</t>
@@ -754,12 +751,6 @@
     <t>Row/Col:R8C46</t>
   </si>
   <si>
-    <t>mopen</t>
-  </si>
-  <si>
-    <t>m</t>
-  </si>
-  <si>
     <t>Row/Col:R8C47</t>
   </si>
   <si>
@@ -788,9 +779,6 @@
   </si>
   <si>
     <t>Row/Col:R8C49</t>
-  </si>
-  <si>
-    <t>o</t>
   </si>
   <si>
     <t>*5.32</t>
@@ -1187,13 +1175,7 @@
     <t>3.8 / 2.8 / 2.7**</t>
   </si>
   <si>
-    <t>0*</t>
-  </si>
-  <si>
     <t>*No AF found on upright or in bag, but 7 were originally recorded</t>
-  </si>
-  <si>
-    <t>1*</t>
   </si>
   <si>
     <t>*Called empty pedicel an AF so changed from 2 to 1</t>
@@ -1571,20 +1553,20 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" wrapText="1"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
   </cellXfs>
@@ -1921,19 +1903,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W811"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A601" workbookViewId="0">
-      <selection activeCell="D628" sqref="D628:D637"/>
+    <sheetView tabSelected="1" topLeftCell="A793" workbookViewId="0">
+      <selection activeCell="V812" sqref="V812"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="8" max="8" width="10.1640625" customWidth="1"/>
-    <col min="9" max="9" width="10" customWidth="1"/>
+    <col min="2" max="6" width="6.6640625" customWidth="1"/>
+    <col min="7" max="7" width="5.83203125" customWidth="1"/>
+    <col min="8" max="8" width="7.5" customWidth="1"/>
+    <col min="9" max="9" width="6.6640625" customWidth="1"/>
+    <col min="10" max="10" width="6.6640625" hidden="1" customWidth="1"/>
+    <col min="11" max="22" width="6.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:20">
       <c r="A1" s="2" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="B1" s="3"/>
       <c r="C1" s="3"/>
@@ -1978,56 +1964,56 @@
       <c r="T2" s="16"/>
     </row>
     <row r="3" spans="1:20">
-      <c r="A3" s="63" t="s">
-        <v>260</v>
-      </c>
-      <c r="B3" s="63"/>
-      <c r="C3" s="63"/>
-      <c r="D3" s="63"/>
-      <c r="E3" s="63"/>
-      <c r="F3" s="63"/>
-      <c r="G3" s="63"/>
-      <c r="H3" s="63"/>
-      <c r="I3" s="63"/>
-      <c r="J3" s="63"/>
-      <c r="K3" s="63"/>
-      <c r="L3" s="63"/>
-      <c r="M3" s="63"/>
-      <c r="N3" s="63"/>
-      <c r="O3" s="63"/>
-      <c r="P3" s="63"/>
-      <c r="Q3" s="63"/>
-      <c r="R3" s="63"/>
-      <c r="S3" s="63"/>
-      <c r="T3" s="63"/>
+      <c r="A3" s="65" t="s">
+        <v>256</v>
+      </c>
+      <c r="B3" s="65"/>
+      <c r="C3" s="65"/>
+      <c r="D3" s="65"/>
+      <c r="E3" s="65"/>
+      <c r="F3" s="65"/>
+      <c r="G3" s="65"/>
+      <c r="H3" s="65"/>
+      <c r="I3" s="65"/>
+      <c r="J3" s="65"/>
+      <c r="K3" s="65"/>
+      <c r="L3" s="65"/>
+      <c r="M3" s="65"/>
+      <c r="N3" s="65"/>
+      <c r="O3" s="65"/>
+      <c r="P3" s="65"/>
+      <c r="Q3" s="65"/>
+      <c r="R3" s="65"/>
+      <c r="S3" s="65"/>
+      <c r="T3" s="65"/>
     </row>
     <row r="4" spans="1:20">
-      <c r="A4" s="63" t="s">
-        <v>261</v>
-      </c>
-      <c r="B4" s="63"/>
-      <c r="C4" s="63"/>
-      <c r="D4" s="63"/>
-      <c r="E4" s="63"/>
-      <c r="F4" s="63"/>
-      <c r="G4" s="63"/>
-      <c r="H4" s="63"/>
-      <c r="I4" s="63"/>
-      <c r="J4" s="63"/>
-      <c r="K4" s="63"/>
-      <c r="L4" s="63"/>
-      <c r="M4" s="63"/>
-      <c r="N4" s="63"/>
-      <c r="O4" s="63"/>
-      <c r="P4" s="63"/>
-      <c r="Q4" s="63"/>
-      <c r="R4" s="63"/>
-      <c r="S4" s="63"/>
-      <c r="T4" s="63"/>
+      <c r="A4" s="65" t="s">
+        <v>257</v>
+      </c>
+      <c r="B4" s="65"/>
+      <c r="C4" s="65"/>
+      <c r="D4" s="65"/>
+      <c r="E4" s="65"/>
+      <c r="F4" s="65"/>
+      <c r="G4" s="65"/>
+      <c r="H4" s="65"/>
+      <c r="I4" s="65"/>
+      <c r="J4" s="65"/>
+      <c r="K4" s="65"/>
+      <c r="L4" s="65"/>
+      <c r="M4" s="65"/>
+      <c r="N4" s="65"/>
+      <c r="O4" s="65"/>
+      <c r="P4" s="65"/>
+      <c r="Q4" s="65"/>
+      <c r="R4" s="65"/>
+      <c r="S4" s="65"/>
+      <c r="T4" s="65"/>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" s="4" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="B5" s="5"/>
       <c r="C5" s="3"/>
@@ -2051,7 +2037,7 @@
     </row>
     <row r="6" spans="1:20">
       <c r="A6" s="4" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="B6" s="5"/>
       <c r="C6" s="3"/>
@@ -2075,7 +2061,7 @@
     </row>
     <row r="7" spans="1:20">
       <c r="A7" s="2" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="B7" s="5"/>
       <c r="C7" s="3"/>
@@ -2121,7 +2107,7 @@
     </row>
     <row r="9" spans="1:20">
       <c r="A9" s="2" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="B9" s="3"/>
       <c r="C9" s="3"/>
@@ -2144,28 +2130,28 @@
       <c r="T9" s="16"/>
     </row>
     <row r="10" spans="1:20">
-      <c r="A10" s="62" t="s">
-        <v>266</v>
-      </c>
-      <c r="B10" s="62"/>
-      <c r="C10" s="62"/>
-      <c r="D10" s="62"/>
-      <c r="E10" s="62"/>
-      <c r="F10" s="62"/>
-      <c r="G10" s="62"/>
-      <c r="H10" s="62"/>
-      <c r="I10" s="62"/>
-      <c r="J10" s="62"/>
-      <c r="K10" s="62"/>
-      <c r="L10" s="62"/>
-      <c r="M10" s="62"/>
-      <c r="N10" s="62"/>
-      <c r="O10" s="62"/>
-      <c r="P10" s="62"/>
-      <c r="Q10" s="62"/>
-      <c r="R10" s="62"/>
-      <c r="S10" s="62"/>
-      <c r="T10" s="62"/>
+      <c r="A10" s="64" t="s">
+        <v>262</v>
+      </c>
+      <c r="B10" s="64"/>
+      <c r="C10" s="64"/>
+      <c r="D10" s="64"/>
+      <c r="E10" s="64"/>
+      <c r="F10" s="64"/>
+      <c r="G10" s="64"/>
+      <c r="H10" s="64"/>
+      <c r="I10" s="64"/>
+      <c r="J10" s="64"/>
+      <c r="K10" s="64"/>
+      <c r="L10" s="64"/>
+      <c r="M10" s="64"/>
+      <c r="N10" s="64"/>
+      <c r="O10" s="64"/>
+      <c r="P10" s="64"/>
+      <c r="Q10" s="64"/>
+      <c r="R10" s="64"/>
+      <c r="S10" s="64"/>
+      <c r="T10" s="64"/>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" s="51"/>
@@ -2191,7 +2177,7 @@
     </row>
     <row r="12" spans="1:20">
       <c r="A12" s="2" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="B12" s="3"/>
       <c r="C12" s="3"/>
@@ -2215,7 +2201,7 @@
     </row>
     <row r="13" spans="1:20">
       <c r="A13" s="2" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="B13" s="3"/>
       <c r="C13" s="3"/>
@@ -2230,7 +2216,7 @@
       <c r="L13" s="16"/>
       <c r="M13" s="16"/>
       <c r="N13" s="41" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="O13" s="18"/>
       <c r="P13" s="15"/>
@@ -2241,7 +2227,7 @@
     </row>
     <row r="14" spans="1:20">
       <c r="A14" s="2" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="B14" s="3"/>
       <c r="C14" s="3"/>
@@ -2265,7 +2251,7 @@
     </row>
     <row r="15" spans="1:20">
       <c r="A15" s="13" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="B15" s="3"/>
       <c r="C15" s="3"/>
@@ -2289,7 +2275,7 @@
     </row>
     <row r="16" spans="1:20">
       <c r="A16" s="13" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="B16" s="3"/>
       <c r="C16" s="3"/>
@@ -2313,7 +2299,7 @@
     </row>
     <row r="17" spans="1:22">
       <c r="A17" s="13" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="B17" s="3"/>
       <c r="C17" s="3"/>
@@ -2337,7 +2323,7 @@
     </row>
     <row r="18" spans="1:22">
       <c r="A18" s="55" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="B18" s="2"/>
       <c r="C18" s="4"/>
@@ -2361,7 +2347,7 @@
     </row>
     <row r="19" spans="1:22">
       <c r="A19" s="13" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="B19" s="2"/>
       <c r="C19" s="4"/>
@@ -2384,76 +2370,76 @@
       <c r="T19" s="5"/>
     </row>
     <row r="20" spans="1:22">
-      <c r="A20" s="62" t="s">
-        <v>275</v>
-      </c>
-      <c r="B20" s="62"/>
-      <c r="C20" s="62"/>
-      <c r="D20" s="62"/>
-      <c r="E20" s="62"/>
-      <c r="F20" s="62"/>
-      <c r="G20" s="62"/>
-      <c r="H20" s="62"/>
-      <c r="I20" s="62"/>
-      <c r="J20" s="62"/>
-      <c r="K20" s="62"/>
-      <c r="L20" s="62"/>
-      <c r="M20" s="62"/>
-      <c r="N20" s="62"/>
-      <c r="O20" s="62"/>
-      <c r="P20" s="62"/>
-      <c r="Q20" s="62"/>
-      <c r="R20" s="62"/>
-      <c r="S20" s="62"/>
-      <c r="T20" s="62"/>
+      <c r="A20" s="64" t="s">
+        <v>271</v>
+      </c>
+      <c r="B20" s="64"/>
+      <c r="C20" s="64"/>
+      <c r="D20" s="64"/>
+      <c r="E20" s="64"/>
+      <c r="F20" s="64"/>
+      <c r="G20" s="64"/>
+      <c r="H20" s="64"/>
+      <c r="I20" s="64"/>
+      <c r="J20" s="64"/>
+      <c r="K20" s="64"/>
+      <c r="L20" s="64"/>
+      <c r="M20" s="64"/>
+      <c r="N20" s="64"/>
+      <c r="O20" s="64"/>
+      <c r="P20" s="64"/>
+      <c r="Q20" s="64"/>
+      <c r="R20" s="64"/>
+      <c r="S20" s="64"/>
+      <c r="T20" s="64"/>
     </row>
     <row r="21" spans="1:22">
-      <c r="A21" s="62" t="s">
-        <v>276</v>
-      </c>
-      <c r="B21" s="62"/>
-      <c r="C21" s="62"/>
-      <c r="D21" s="62"/>
-      <c r="E21" s="62"/>
-      <c r="F21" s="62"/>
-      <c r="G21" s="62"/>
-      <c r="H21" s="62"/>
-      <c r="I21" s="62"/>
-      <c r="J21" s="62"/>
-      <c r="K21" s="62"/>
-      <c r="L21" s="62"/>
-      <c r="M21" s="62"/>
-      <c r="N21" s="62"/>
-      <c r="O21" s="62"/>
-      <c r="P21" s="62"/>
-      <c r="Q21" s="62"/>
-      <c r="R21" s="62"/>
-      <c r="S21" s="62"/>
-      <c r="T21" s="62"/>
+      <c r="A21" s="64" t="s">
+        <v>272</v>
+      </c>
+      <c r="B21" s="64"/>
+      <c r="C21" s="64"/>
+      <c r="D21" s="64"/>
+      <c r="E21" s="64"/>
+      <c r="F21" s="64"/>
+      <c r="G21" s="64"/>
+      <c r="H21" s="64"/>
+      <c r="I21" s="64"/>
+      <c r="J21" s="64"/>
+      <c r="K21" s="64"/>
+      <c r="L21" s="64"/>
+      <c r="M21" s="64"/>
+      <c r="N21" s="64"/>
+      <c r="O21" s="64"/>
+      <c r="P21" s="64"/>
+      <c r="Q21" s="64"/>
+      <c r="R21" s="64"/>
+      <c r="S21" s="64"/>
+      <c r="T21" s="64"/>
     </row>
     <row r="22" spans="1:22">
-      <c r="A22" s="62" t="s">
-        <v>277</v>
-      </c>
-      <c r="B22" s="62"/>
-      <c r="C22" s="62"/>
-      <c r="D22" s="62"/>
-      <c r="E22" s="62"/>
-      <c r="F22" s="62"/>
-      <c r="G22" s="62"/>
-      <c r="H22" s="62"/>
-      <c r="I22" s="62"/>
-      <c r="J22" s="62"/>
-      <c r="K22" s="62"/>
-      <c r="L22" s="62"/>
-      <c r="M22" s="62"/>
-      <c r="N22" s="62"/>
-      <c r="O22" s="62"/>
-      <c r="P22" s="62"/>
-      <c r="Q22" s="62"/>
-      <c r="R22" s="62"/>
-      <c r="S22" s="62"/>
-      <c r="T22" s="62"/>
+      <c r="A22" s="64" t="s">
+        <v>273</v>
+      </c>
+      <c r="B22" s="64"/>
+      <c r="C22" s="64"/>
+      <c r="D22" s="64"/>
+      <c r="E22" s="64"/>
+      <c r="F22" s="64"/>
+      <c r="G22" s="64"/>
+      <c r="H22" s="64"/>
+      <c r="I22" s="64"/>
+      <c r="J22" s="64"/>
+      <c r="K22" s="64"/>
+      <c r="L22" s="64"/>
+      <c r="M22" s="64"/>
+      <c r="N22" s="64"/>
+      <c r="O22" s="64"/>
+      <c r="P22" s="64"/>
+      <c r="Q22" s="64"/>
+      <c r="R22" s="64"/>
+      <c r="S22" s="64"/>
+      <c r="T22" s="64"/>
     </row>
     <row r="23" spans="1:22">
       <c r="A23" s="4"/>
@@ -2479,7 +2465,7 @@
     </row>
     <row r="24" spans="1:22">
       <c r="A24" s="4" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="B24" s="4"/>
       <c r="C24" s="4"/>
@@ -2503,7 +2489,7 @@
     </row>
     <row r="25" spans="1:22">
       <c r="A25" s="4" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="B25" s="4"/>
       <c r="C25" s="4"/>
@@ -2527,7 +2513,7 @@
     </row>
     <row r="26" spans="1:22">
       <c r="A26" s="4" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="B26" s="4"/>
       <c r="C26" s="4"/>
@@ -2551,7 +2537,7 @@
     </row>
     <row r="30" spans="1:22" ht="15">
       <c r="A30" s="21" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="B30" s="9"/>
       <c r="C30" s="9"/>
@@ -2596,10 +2582,10 @@
       <c r="L31" s="20"/>
       <c r="M31" s="16"/>
       <c r="N31" s="41"/>
-      <c r="O31" s="65" t="s">
-        <v>3</v>
-      </c>
-      <c r="P31" s="65"/>
+      <c r="O31" s="63" t="s">
+        <v>3</v>
+      </c>
+      <c r="P31" s="63"/>
       <c r="Q31" s="6"/>
       <c r="R31" s="1"/>
       <c r="S31" s="1"/>
@@ -2620,11 +2606,11 @@
       </c>
       <c r="I32" s="1"/>
       <c r="J32" s="23"/>
-      <c r="K32" s="64" t="s">
+      <c r="K32" s="62" t="s">
         <v>5</v>
       </c>
-      <c r="L32" s="64"/>
-      <c r="M32" s="64"/>
+      <c r="L32" s="62"/>
+      <c r="M32" s="62"/>
       <c r="N32" s="44" t="s">
         <v>6</v>
       </c>
@@ -4217,7 +4203,7 @@
     </row>
     <row r="59" spans="1:22" ht="15">
       <c r="A59" s="21" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="B59" s="9"/>
       <c r="C59" s="9"/>
@@ -4262,10 +4248,10 @@
       <c r="L60" s="20"/>
       <c r="M60" s="16"/>
       <c r="N60" s="41"/>
-      <c r="O60" s="65" t="s">
-        <v>3</v>
-      </c>
-      <c r="P60" s="65"/>
+      <c r="O60" s="63" t="s">
+        <v>3</v>
+      </c>
+      <c r="P60" s="63"/>
       <c r="Q60" s="6"/>
       <c r="R60" s="1"/>
       <c r="S60" s="1"/>
@@ -4286,11 +4272,11 @@
       </c>
       <c r="I61" s="1"/>
       <c r="J61" s="23"/>
-      <c r="K61" s="64" t="s">
+      <c r="K61" s="62" t="s">
         <v>5</v>
       </c>
-      <c r="L61" s="64"/>
-      <c r="M61" s="64"/>
+      <c r="L61" s="62"/>
+      <c r="M61" s="62"/>
       <c r="N61" s="44" t="s">
         <v>6</v>
       </c>
@@ -5584,8 +5570,8 @@
       <c r="N82" s="42">
         <v>2.75</v>
       </c>
-      <c r="O82" s="30" t="s">
-        <v>67</v>
+      <c r="O82" s="6" t="s">
+        <v>7</v>
       </c>
       <c r="P82" s="30" t="s">
         <v>50</v>
@@ -5647,7 +5633,7 @@
         <v>14.2</v>
       </c>
       <c r="M83" s="46" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="N83" s="42">
         <v>2.87</v>
@@ -5883,7 +5869,7 @@
     </row>
     <row r="88" spans="1:22" ht="15">
       <c r="A88" s="21" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="B88" s="9"/>
       <c r="C88" s="9"/>
@@ -5928,10 +5914,10 @@
       <c r="L89" s="20"/>
       <c r="M89" s="16"/>
       <c r="N89" s="41"/>
-      <c r="O89" s="65" t="s">
-        <v>3</v>
-      </c>
-      <c r="P89" s="65"/>
+      <c r="O89" s="63" t="s">
+        <v>3</v>
+      </c>
+      <c r="P89" s="63"/>
       <c r="Q89" s="6"/>
       <c r="R89" s="1"/>
       <c r="S89" s="1"/>
@@ -5952,11 +5938,11 @@
       </c>
       <c r="I90" s="1"/>
       <c r="J90" s="23"/>
-      <c r="K90" s="64" t="s">
+      <c r="K90" s="62" t="s">
         <v>5</v>
       </c>
-      <c r="L90" s="64"/>
-      <c r="M90" s="64"/>
+      <c r="L90" s="62"/>
+      <c r="M90" s="62"/>
       <c r="N90" s="44" t="s">
         <v>6</v>
       </c>
@@ -6113,7 +6099,7 @@
     </row>
     <row r="93" spans="1:22">
       <c r="A93" s="19" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B93" s="33"/>
       <c r="C93" s="33"/>
@@ -6293,7 +6279,7 @@
         <v>1</v>
       </c>
       <c r="G96" s="37" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="H96" s="24">
         <v>23.3</v>
@@ -6497,7 +6483,7 @@
         <v>0</v>
       </c>
       <c r="G99" s="37" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="H99" s="24">
         <v>1.5</v>
@@ -6701,7 +6687,7 @@
         <v>1</v>
       </c>
       <c r="G102" s="37" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="H102" s="24">
         <v>4.2</v>
@@ -6843,7 +6829,7 @@
     </row>
     <row r="105" spans="1:22">
       <c r="A105" s="57" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
       <c r="B105" s="58"/>
       <c r="C105" s="16"/>
@@ -6887,7 +6873,7 @@
         <v>1</v>
       </c>
       <c r="G106" s="49" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="H106" s="4">
         <v>4.3</v>
@@ -7091,7 +7077,7 @@
         <v>6</v>
       </c>
       <c r="G109" s="49" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="H109" s="4">
         <v>6.4</v>
@@ -7549,7 +7535,7 @@
     </row>
     <row r="117" spans="1:23" ht="15">
       <c r="A117" s="21" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="B117" s="9"/>
       <c r="C117" s="9"/>
@@ -7779,7 +7765,7 @@
     </row>
     <row r="122" spans="1:23">
       <c r="A122" s="19" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B122" s="33"/>
       <c r="C122" s="33"/>
@@ -7824,10 +7810,10 @@
         <v>2</v>
       </c>
       <c r="G123" s="37" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="H123" s="5" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="I123" s="24">
         <v>0</v>
@@ -7872,7 +7858,7 @@
         <v>49</v>
       </c>
       <c r="W123" s="60" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
     </row>
     <row r="124" spans="1:23">
@@ -7895,10 +7881,10 @@
         <v>1</v>
       </c>
       <c r="G124" s="37" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="H124" s="5" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="I124" s="24">
         <v>0</v>
@@ -7943,7 +7929,7 @@
         <v>49</v>
       </c>
       <c r="W124" s="60" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
     </row>
     <row r="125" spans="1:23">
@@ -7960,16 +7946,16 @@
         <v>5</v>
       </c>
       <c r="E125" s="24">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F125" s="24">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G125" s="37">
         <v>9.33</v>
       </c>
       <c r="H125" s="10" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="I125" s="24">
         <v>0</v>
@@ -8014,7 +8000,7 @@
         <v>49</v>
       </c>
       <c r="W125" s="60" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
     </row>
     <row r="126" spans="1:23">
@@ -8168,8 +8154,8 @@
       <c r="D128" s="24">
         <v>1</v>
       </c>
-      <c r="E128" s="47" t="s">
-        <v>294</v>
+      <c r="E128" s="47">
+        <v>7</v>
       </c>
       <c r="F128" s="24">
         <v>2</v>
@@ -8223,7 +8209,7 @@
         <v>49</v>
       </c>
       <c r="W128" s="61" t="s">
-        <v>295</v>
+        <v>290</v>
       </c>
     </row>
     <row r="129" spans="1:23">
@@ -8239,8 +8225,8 @@
       <c r="D129" s="24">
         <v>1</v>
       </c>
-      <c r="E129" s="47" t="s">
-        <v>296</v>
+      <c r="E129" s="47">
+        <v>2</v>
       </c>
       <c r="F129" s="24">
         <v>2</v>
@@ -8294,7 +8280,7 @@
         <v>49</v>
       </c>
       <c r="W129" s="61" t="s">
-        <v>297</v>
+        <v>291</v>
       </c>
     </row>
     <row r="130" spans="1:23">
@@ -8310,11 +8296,11 @@
       <c r="D130" s="24">
         <v>2</v>
       </c>
-      <c r="E130" s="47" t="s">
-        <v>294</v>
-      </c>
-      <c r="F130" s="47" t="s">
-        <v>296</v>
+      <c r="E130" s="47">
+        <v>2</v>
+      </c>
+      <c r="F130" s="47">
+        <v>0</v>
       </c>
       <c r="G130" s="37">
         <v>5.3</v>
@@ -8365,7 +8351,7 @@
         <v>49</v>
       </c>
       <c r="W130" s="61" t="s">
-        <v>298</v>
+        <v>292</v>
       </c>
     </row>
     <row r="131" spans="1:23">
@@ -8496,7 +8482,7 @@
         <v>2</v>
       </c>
       <c r="T132" s="14" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="U132" s="14">
         <v>31</v>
@@ -8532,7 +8518,7 @@
     </row>
     <row r="134" spans="1:23">
       <c r="A134" s="29" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B134" s="16"/>
       <c r="C134" s="16"/>
@@ -8576,7 +8562,7 @@
         <v>1</v>
       </c>
       <c r="G135" s="37" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="H135" s="4">
         <v>3.7</v>
@@ -8792,7 +8778,7 @@
         <v>8.4000000000000005E-2</v>
       </c>
       <c r="K138" s="5">
-        <v>23.15</v>
+        <v>25.15</v>
       </c>
       <c r="L138" s="5">
         <v>20.46</v>
@@ -8984,7 +8970,7 @@
         <v>0</v>
       </c>
       <c r="G141" s="37" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H141" s="4">
         <v>6.3</v>
@@ -9005,7 +8991,7 @@
         <v>3.56</v>
       </c>
       <c r="N141" s="42">
-        <v>6.47</v>
+        <v>3.47</v>
       </c>
       <c r="O141" s="30" t="s">
         <v>7</v>
@@ -9238,7 +9224,7 @@
     </row>
     <row r="146" spans="1:22" ht="15">
       <c r="A146" s="21" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="B146" s="9"/>
       <c r="C146" s="9"/>
@@ -9468,7 +9454,7 @@
     </row>
     <row r="151" spans="1:22">
       <c r="A151" s="19" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B151" s="33"/>
       <c r="C151" s="33"/>
@@ -10153,8 +10139,8 @@
       <c r="P161" s="30" t="s">
         <v>46</v>
       </c>
-      <c r="Q161" s="24" t="s">
-        <v>48</v>
+      <c r="Q161" s="4" t="s">
+        <v>47</v>
       </c>
       <c r="R161" s="24" t="s">
         <v>48</v>
@@ -10198,7 +10184,7 @@
     </row>
     <row r="163" spans="1:22">
       <c r="A163" s="29" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B163" s="16"/>
       <c r="C163" s="16"/>
@@ -10272,7 +10258,7 @@
         <v>46</v>
       </c>
       <c r="Q164" s="24" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="R164" s="24" t="s">
         <v>48</v>
@@ -10378,7 +10364,7 @@
         <v>0</v>
       </c>
       <c r="G166" s="37" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="H166" s="2">
         <v>3.9</v>
@@ -10446,7 +10432,7 @@
         <v>0</v>
       </c>
       <c r="G167" s="37" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="H167" s="4">
         <v>1.6</v>
@@ -10718,7 +10704,7 @@
         <v>0</v>
       </c>
       <c r="G171" s="37" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="H171" s="4">
         <v>2.9</v>
@@ -10877,8 +10863,8 @@
       <c r="N173" s="42">
         <v>3</v>
       </c>
-      <c r="O173" s="30" t="s">
-        <v>46</v>
+      <c r="O173" s="6" t="s">
+        <v>39</v>
       </c>
       <c r="P173" s="30" t="s">
         <v>40</v>
@@ -10904,7 +10890,7 @@
     </row>
     <row r="175" spans="1:22" ht="15">
       <c r="A175" s="21" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="B175" s="9"/>
       <c r="C175" s="9"/>
@@ -11134,7 +11120,7 @@
     </row>
     <row r="180" spans="1:22">
       <c r="A180" s="19" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B180" s="33"/>
       <c r="C180" s="33"/>
@@ -11246,7 +11232,7 @@
         <v>2</v>
       </c>
       <c r="G182" s="37" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="H182" s="24">
         <v>3.5</v>
@@ -11334,7 +11320,7 @@
         <v>3.01</v>
       </c>
       <c r="O183" s="30" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="P183" s="30" t="s">
         <v>25</v>
@@ -11349,7 +11335,7 @@
         <v>2</v>
       </c>
       <c r="T183" s="14" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="U183" s="14">
         <v>33</v>
@@ -11378,7 +11364,7 @@
         <v>2</v>
       </c>
       <c r="G184" s="37" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="H184" s="24">
         <v>4.7</v>
@@ -11446,7 +11432,7 @@
         <v>1</v>
       </c>
       <c r="G185" s="37" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H185" s="24">
         <v>3.6</v>
@@ -11512,7 +11498,7 @@
         <v>0</v>
       </c>
       <c r="G186" s="37" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="H186" s="24">
         <v>6.5</v>
@@ -11646,7 +11632,7 @@
         <v>0</v>
       </c>
       <c r="G188" s="37" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="H188" s="24">
         <v>3.7</v>
@@ -11714,7 +11700,7 @@
         <v>0</v>
       </c>
       <c r="G189" s="37" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="H189" s="24">
         <v>5.6</v>
@@ -11852,7 +11838,7 @@
     </row>
     <row r="192" spans="1:22">
       <c r="A192" s="29" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B192" s="16"/>
       <c r="C192" s="16"/>
@@ -11918,7 +11904,7 @@
         <v>2.64</v>
       </c>
       <c r="O193" s="30" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="P193" s="30" t="s">
         <v>46</v>
@@ -12166,7 +12152,7 @@
         <v>1.9</v>
       </c>
       <c r="I197" s="24" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="J197" s="14">
         <v>2.5999999999999999E-2</v>
@@ -12294,7 +12280,7 @@
         <v>9</v>
       </c>
       <c r="G199" s="37" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="H199" s="4">
         <v>3.3</v>
@@ -12366,7 +12352,7 @@
         <v>2.6</v>
       </c>
       <c r="I200" s="24" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="J200" s="1">
         <v>5.8999999999999997E-2</v>
@@ -12494,7 +12480,7 @@
         <v>0</v>
       </c>
       <c r="G202" s="37" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="H202" s="4">
         <v>3.6</v>
@@ -12542,7 +12528,7 @@
     </row>
     <row r="204" spans="1:22" ht="15">
       <c r="A204" s="21" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="B204" s="9"/>
       <c r="C204" s="9"/>
@@ -12772,7 +12758,7 @@
     </row>
     <row r="209" spans="1:22">
       <c r="A209" s="19" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B209" s="33"/>
       <c r="C209" s="33"/>
@@ -12816,7 +12802,7 @@
         <v>0</v>
       </c>
       <c r="G210" s="37" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="H210" s="24">
         <v>3.2</v>
@@ -13080,7 +13066,7 @@
         <v>0</v>
       </c>
       <c r="G214" s="37" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="H214" s="24">
         <v>6.1</v>
@@ -13096,7 +13082,7 @@
         <v>18.600000000000001</v>
       </c>
       <c r="M214" s="14" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="N214" s="38">
         <v>3.3</v>
@@ -13249,7 +13235,7 @@
         <v>2</v>
       </c>
       <c r="T216" s="14" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="U216" s="14">
         <v>24</v>
@@ -13482,7 +13468,7 @@
     </row>
     <row r="221" spans="1:22">
       <c r="A221" s="29" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B221" s="16"/>
       <c r="C221" s="16"/>
@@ -13526,7 +13512,7 @@
         <v>0</v>
       </c>
       <c r="G222" s="37" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="H222" s="4">
         <v>5.2</v>
@@ -13542,7 +13528,7 @@
         <v>18.05</v>
       </c>
       <c r="M222" s="14" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="N222" s="42">
         <v>2.9</v>
@@ -13724,7 +13710,7 @@
         <v>0</v>
       </c>
       <c r="G225" s="37" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="H225" s="4">
         <v>3.1</v>
@@ -14056,7 +14042,7 @@
         <v>0</v>
       </c>
       <c r="G230" s="37" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="H230" s="4">
         <v>4.2</v>
@@ -14074,7 +14060,7 @@
         <v>18.37</v>
       </c>
       <c r="M230" s="14" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="N230" s="42">
         <v>3.2</v>
@@ -14098,7 +14084,7 @@
         <v>57</v>
       </c>
       <c r="U230" s="5">
-        <v>32</v>
+        <v>12</v>
       </c>
       <c r="V230" s="24" t="s">
         <v>49</v>
@@ -14172,7 +14158,7 @@
     </row>
     <row r="233" spans="1:22" ht="15">
       <c r="A233" s="21" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="B233" s="9"/>
       <c r="C233" s="9"/>
@@ -14402,7 +14388,7 @@
     </row>
     <row r="238" spans="1:22">
       <c r="A238" s="19" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B238" s="33"/>
       <c r="C238" s="33"/>
@@ -14446,7 +14432,7 @@
         <v>8</v>
       </c>
       <c r="G239" s="37" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="H239" s="24">
         <v>3.6</v>
@@ -14512,7 +14498,7 @@
         <v>2</v>
       </c>
       <c r="G240" s="37" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="H240" s="24">
         <v>2.8</v>
@@ -14681,7 +14667,7 @@
         <v>1</v>
       </c>
       <c r="T242" s="14" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="U242" s="14">
         <v>27</v>
@@ -14710,7 +14696,7 @@
         <v>5</v>
       </c>
       <c r="G243" s="37" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="H243" s="24">
         <v>2.2000000000000002</v>
@@ -14974,7 +14960,7 @@
         <v>2</v>
       </c>
       <c r="G247" s="37" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="H247" s="24">
         <v>0.9</v>
@@ -15112,7 +15098,7 @@
     </row>
     <row r="250" spans="1:22">
       <c r="A250" s="29" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B250" s="16"/>
       <c r="C250" s="16"/>
@@ -15222,7 +15208,7 @@
         <v>0</v>
       </c>
       <c r="G252" s="37" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="H252" s="4">
         <v>3.8</v>
@@ -15488,7 +15474,7 @@
         <v>0</v>
       </c>
       <c r="G256" s="37" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="H256" s="4">
         <v>1.5</v>
@@ -15506,7 +15492,7 @@
         <v>18.22</v>
       </c>
       <c r="M256" s="14" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="N256" s="42">
         <v>2.99</v>
@@ -15622,7 +15608,7 @@
         <v>0</v>
       </c>
       <c r="G258" s="37" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="H258" s="4">
         <v>1.6</v>
@@ -15690,7 +15676,7 @@
         <v>0</v>
       </c>
       <c r="G259" s="37" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="H259" s="4">
         <v>2.1</v>
@@ -15708,7 +15694,7 @@
         <v>18.14</v>
       </c>
       <c r="M259" s="14" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="N259" s="42">
         <v>3.09</v>
@@ -15806,7 +15792,7 @@
     </row>
     <row r="262" spans="1:22" ht="15">
       <c r="A262" s="21" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="B262" s="9"/>
       <c r="C262" s="9"/>
@@ -16036,7 +16022,7 @@
     </row>
     <row r="267" spans="1:22">
       <c r="A267" s="19" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B267" s="33"/>
       <c r="C267" s="33"/>
@@ -16080,10 +16066,10 @@
         <v>1</v>
       </c>
       <c r="G268" s="37" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="H268" s="24">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="I268" s="24"/>
       <c r="J268" s="14">
@@ -16214,7 +16200,7 @@
         <v>2</v>
       </c>
       <c r="G270" s="37" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="H270" s="24">
         <v>1.7</v>
@@ -16386,7 +16372,7 @@
         <v>57</v>
       </c>
       <c r="U272" s="14">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="V272" s="24" t="s">
         <v>49</v>
@@ -16694,7 +16680,7 @@
         <v>18.3</v>
       </c>
       <c r="M277" s="14" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="N277" s="38">
         <v>2.99</v>
@@ -16750,7 +16736,7 @@
     </row>
     <row r="279" spans="1:22">
       <c r="A279" s="29" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B279" s="16"/>
       <c r="C279" s="16"/>
@@ -17438,7 +17424,7 @@
     </row>
     <row r="291" spans="1:22" ht="15">
       <c r="A291" s="21" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="B291" s="9"/>
       <c r="C291" s="9"/>
@@ -17668,7 +17654,7 @@
     </row>
     <row r="296" spans="1:22">
       <c r="A296" s="19" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B296" s="33"/>
       <c r="C296" s="33"/>
@@ -17784,7 +17770,7 @@
         <v>5.8</v>
       </c>
       <c r="I298" s="24" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="J298" s="14">
         <v>0.123</v>
@@ -17978,7 +17964,7 @@
         <v>0</v>
       </c>
       <c r="G301" s="37" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="H301" s="24">
         <v>3.1</v>
@@ -18044,7 +18030,7 @@
         <v>0</v>
       </c>
       <c r="G302" s="37" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="H302" s="24">
         <v>5.7</v>
@@ -18083,7 +18069,7 @@
         <v>2</v>
       </c>
       <c r="T302" s="14" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="U302" s="14">
         <v>23</v>
@@ -18112,7 +18098,7 @@
         <v>1</v>
       </c>
       <c r="G303" s="37" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="H303" s="24">
         <v>5.7</v>
@@ -18180,7 +18166,7 @@
         <v>0</v>
       </c>
       <c r="G304" s="37" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="H304" s="24">
         <v>6.2</v>
@@ -18248,7 +18234,7 @@
         <v>2</v>
       </c>
       <c r="G305" s="37" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="H305" s="24">
         <v>4</v>
@@ -18314,13 +18300,13 @@
         <v>0</v>
       </c>
       <c r="G306" s="37" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="H306" s="24">
         <v>4.5</v>
       </c>
       <c r="I306" s="4" t="s">
-        <v>286</v>
+        <v>282</v>
       </c>
       <c r="J306" s="14">
         <v>0.185</v>
@@ -18388,7 +18374,7 @@
     </row>
     <row r="308" spans="1:22">
       <c r="A308" s="29" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B308" s="16"/>
       <c r="C308" s="16"/>
@@ -18630,7 +18616,7 @@
         <v>0</v>
       </c>
       <c r="G312" s="37" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="H312" s="4">
         <v>4.4000000000000004</v>
@@ -18646,7 +18632,7 @@
         <v>16.63</v>
       </c>
       <c r="M312" s="14" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="N312" s="42">
         <v>3.01</v>
@@ -18780,7 +18766,7 @@
         <v>16.059999999999999</v>
       </c>
       <c r="M314" s="14" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="N314" s="42">
         <v>3.05</v>
@@ -18896,7 +18882,7 @@
         <v>0</v>
       </c>
       <c r="G316" s="37" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="H316" s="4">
         <v>2.8</v>
@@ -18912,7 +18898,7 @@
         <v>12.09</v>
       </c>
       <c r="M316" s="14" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="N316" s="42">
         <v>2.54</v>
@@ -19078,7 +19064,7 @@
     </row>
     <row r="320" spans="1:22" ht="15">
       <c r="A320" s="21" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="B320" s="9"/>
       <c r="C320" s="9"/>
@@ -19308,7 +19294,7 @@
     </row>
     <row r="325" spans="1:22">
       <c r="A325" s="19" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B325" s="33"/>
       <c r="C325" s="33"/>
@@ -19758,7 +19744,7 @@
         <v>20</v>
       </c>
       <c r="M332" s="14">
-        <v>2.4900000000000002</v>
+        <v>3.49</v>
       </c>
       <c r="N332" s="38">
         <v>2.4700000000000002</v>
@@ -20012,7 +19998,7 @@
     </row>
     <row r="337" spans="1:22">
       <c r="A337" s="29" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B337" s="16"/>
       <c r="C337" s="16"/>
@@ -20460,7 +20446,7 @@
         <v>2.2999999999999998</v>
       </c>
       <c r="I344" s="24" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="J344" s="14">
         <v>4.7E-2</v>
@@ -20702,7 +20688,7 @@
     </row>
     <row r="349" spans="1:22" ht="15">
       <c r="A349" s="21" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="B349" s="9"/>
       <c r="C349" s="9"/>
@@ -20932,7 +20918,7 @@
     </row>
     <row r="354" spans="1:22">
       <c r="A354" s="19" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B354" s="33"/>
       <c r="C354" s="33"/>
@@ -20976,7 +20962,7 @@
         <v>3</v>
       </c>
       <c r="G355" s="37" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="H355" s="4">
         <v>2.1</v>
@@ -21042,7 +21028,7 @@
         <v>0</v>
       </c>
       <c r="G356" s="37" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="H356" s="4">
         <v>3.2</v>
@@ -21073,7 +21059,7 @@
         <v>52</v>
       </c>
       <c r="R356" s="24" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="S356" s="5">
         <v>2</v>
@@ -21108,7 +21094,7 @@
         <v>2</v>
       </c>
       <c r="G357" s="37" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="H357" s="4">
         <v>1.4</v>
@@ -21176,7 +21162,7 @@
         <v>1</v>
       </c>
       <c r="G358" s="37" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="H358" s="4">
         <v>2</v>
@@ -21242,7 +21228,7 @@
         <v>0</v>
       </c>
       <c r="G359" s="37" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="H359" s="4">
         <v>3.5</v>
@@ -21260,7 +21246,7 @@
         <v>19.690000000000001</v>
       </c>
       <c r="M359" s="37" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="N359" s="4">
         <v>3.19</v>
@@ -21275,7 +21261,7 @@
         <v>48</v>
       </c>
       <c r="R359" s="24" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="S359" s="5">
         <v>2</v>
@@ -21378,7 +21364,7 @@
         <v>2</v>
       </c>
       <c r="G361" s="37" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="H361" s="4">
         <v>3.7</v>
@@ -21498,7 +21484,7 @@
         <v>3</v>
       </c>
       <c r="C363" s="4">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D363" s="4">
         <v>2</v>
@@ -21543,7 +21529,7 @@
         <v>48</v>
       </c>
       <c r="R363" s="24" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="S363" s="5">
         <v>2</v>
@@ -21611,7 +21597,7 @@
         <v>48</v>
       </c>
       <c r="R364" s="24" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="S364" s="5">
         <v>1</v>
@@ -21652,7 +21638,7 @@
     </row>
     <row r="366" spans="1:22">
       <c r="A366" s="19" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B366" s="1"/>
       <c r="C366" s="1"/>
@@ -21696,7 +21682,7 @@
         <v>0</v>
       </c>
       <c r="G367" s="37" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="H367" s="4">
         <v>3.3</v>
@@ -21894,7 +21880,7 @@
         <v>0</v>
       </c>
       <c r="G370" s="37" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="H370" s="4">
         <v>2.7</v>
@@ -21960,7 +21946,7 @@
         <v>0</v>
       </c>
       <c r="G371" s="37" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="H371" s="4">
         <v>3.9</v>
@@ -22028,7 +22014,7 @@
         <v>0</v>
       </c>
       <c r="G372" s="37" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="H372" s="4">
         <v>2.8</v>
@@ -22232,7 +22218,7 @@
         <v>2.1</v>
       </c>
       <c r="I375" s="4">
-        <v>0.09</v>
+        <v>0.9</v>
       </c>
       <c r="J375" s="4">
         <v>5.8999999999999997E-2</v>
@@ -22342,7 +22328,7 @@
     </row>
     <row r="378" spans="1:22" ht="15">
       <c r="A378" s="21" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="B378" s="9"/>
       <c r="C378" s="9"/>
@@ -22572,7 +22558,7 @@
     </row>
     <row r="383" spans="1:22">
       <c r="A383" s="19" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B383" s="33"/>
       <c r="C383" s="33"/>
@@ -23282,7 +23268,7 @@
     </row>
     <row r="395" spans="1:22">
       <c r="A395" s="19" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B395" s="1"/>
       <c r="C395" s="1"/>
@@ -23551,8 +23537,8 @@
       <c r="P399" s="24" t="s">
         <v>46</v>
       </c>
-      <c r="Q399" s="24" t="s">
-        <v>52</v>
+      <c r="Q399" s="4" t="s">
+        <v>48</v>
       </c>
       <c r="R399" s="24" t="s">
         <v>52</v>
@@ -23683,8 +23669,8 @@
       <c r="P401" s="24" t="s">
         <v>46</v>
       </c>
-      <c r="Q401" s="24" t="s">
-        <v>52</v>
+      <c r="Q401" s="4" t="s">
+        <v>48</v>
       </c>
       <c r="R401" s="24" t="s">
         <v>52</v>
@@ -23749,8 +23735,8 @@
       <c r="P402" s="24" t="s">
         <v>46</v>
       </c>
-      <c r="Q402" s="24" t="s">
-        <v>48</v>
+      <c r="Q402" s="4" t="s">
+        <v>47</v>
       </c>
       <c r="R402" s="24" t="s">
         <v>48</v>
@@ -23881,8 +23867,8 @@
       <c r="P404" s="24" t="s">
         <v>46</v>
       </c>
-      <c r="Q404" s="24" t="s">
-        <v>52</v>
+      <c r="Q404" s="4" t="s">
+        <v>48</v>
       </c>
       <c r="R404" s="24" t="s">
         <v>52</v>
@@ -23947,8 +23933,8 @@
       <c r="P405" s="24" t="s">
         <v>46</v>
       </c>
-      <c r="Q405" s="24" t="s">
-        <v>52</v>
+      <c r="Q405" s="4" t="s">
+        <v>47</v>
       </c>
       <c r="R405" s="24" t="s">
         <v>52</v>
@@ -23968,7 +23954,7 @@
     </row>
     <row r="407" spans="1:22" ht="15">
       <c r="A407" s="21" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="B407" s="9"/>
       <c r="C407" s="9"/>
@@ -24198,7 +24184,7 @@
     </row>
     <row r="412" spans="1:22">
       <c r="A412" s="19" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B412" s="33"/>
       <c r="C412" s="33"/>
@@ -24509,7 +24495,7 @@
         <v>5.74</v>
       </c>
       <c r="H417" s="24" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="I417" s="1"/>
       <c r="J417" s="4"/>
@@ -24636,7 +24622,7 @@
         <v>0</v>
       </c>
       <c r="G419" s="37" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="H419" s="4">
         <v>3.1</v>
@@ -24676,7 +24662,7 @@
         <v>53</v>
       </c>
       <c r="U419" s="4">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="V419" s="24" t="s">
         <v>49</v>
@@ -24836,7 +24822,7 @@
         <v>1</v>
       </c>
       <c r="G422" s="37" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="H422" s="4">
         <v>1.8</v>
@@ -24908,7 +24894,7 @@
     </row>
     <row r="424" spans="1:22">
       <c r="A424" s="19" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B424" s="1"/>
       <c r="C424" s="1"/>
@@ -25037,7 +25023,7 @@
         <v>2.35</v>
       </c>
       <c r="N426" s="4">
-        <v>3.78</v>
+        <v>2.78</v>
       </c>
       <c r="O426" s="24" t="s">
         <v>39</v>
@@ -25084,7 +25070,7 @@
         <v>0</v>
       </c>
       <c r="G427" s="37" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="H427" s="4">
         <v>3.8</v>
@@ -25150,7 +25136,7 @@
         <v>1</v>
       </c>
       <c r="G428" s="37" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="H428" s="4">
         <v>3</v>
@@ -25253,7 +25239,7 @@
         <v>2</v>
       </c>
       <c r="T429" s="24" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="U429" s="4">
         <v>17</v>
@@ -25282,7 +25268,7 @@
         <v>1</v>
       </c>
       <c r="G430" s="37" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="H430" s="4">
         <v>4.2</v>
@@ -25348,7 +25334,7 @@
         <v>1</v>
       </c>
       <c r="G431" s="37" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="H431" s="4">
         <v>2.2000000000000002</v>
@@ -25364,7 +25350,7 @@
         <v>16.41</v>
       </c>
       <c r="M431" s="37" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="N431" s="4">
         <v>2.85</v>
@@ -25480,7 +25466,7 @@
         <v>2</v>
       </c>
       <c r="G433" s="37" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="H433" s="4">
         <v>2.1</v>
@@ -25561,13 +25547,13 @@
         <v>27.95</v>
       </c>
       <c r="L434" s="4">
-        <v>16.670000000000002</v>
+        <v>17.670000000000002</v>
       </c>
       <c r="M434" s="4">
         <v>3.3</v>
       </c>
       <c r="N434" s="4">
-        <v>2.59</v>
+        <v>2.69</v>
       </c>
       <c r="O434" s="24" t="s">
         <v>46</v>
@@ -25596,7 +25582,7 @@
     </row>
     <row r="436" spans="1:22" ht="15">
       <c r="A436" s="21" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="B436" s="9"/>
       <c r="C436" s="9"/>
@@ -25826,7 +25812,7 @@
     </row>
     <row r="441" spans="1:22">
       <c r="A441" s="19" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B441" s="33"/>
       <c r="C441" s="33"/>
@@ -26338,7 +26324,7 @@
         <v>1.5</v>
       </c>
       <c r="I449" s="1" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
       <c r="J449" s="4">
         <v>0.155</v>
@@ -26538,7 +26524,7 @@
     </row>
     <row r="453" spans="1:22">
       <c r="A453" s="19" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B453" s="1"/>
       <c r="C453" s="1"/>
@@ -26732,7 +26718,7 @@
         <v>17.149999999999999</v>
       </c>
       <c r="M456" s="37" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="N456" s="4">
         <v>2.15</v>
@@ -26866,7 +26852,7 @@
         <v>19.079999999999998</v>
       </c>
       <c r="M458" s="37" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="N458" s="4">
         <v>2.56</v>
@@ -27000,7 +26986,7 @@
         <v>17.02</v>
       </c>
       <c r="M460" s="37" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="N460" s="4">
         <v>3.12</v>
@@ -27066,7 +27052,7 @@
         <v>17.329999999999998</v>
       </c>
       <c r="M461" s="37" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="N461" s="4">
         <v>2.56</v>
@@ -27122,7 +27108,7 @@
         <v>9.1999999999999993</v>
       </c>
       <c r="I462" s="37" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="J462" s="4">
         <v>0.30099999999999999</v>
@@ -27134,7 +27120,7 @@
         <v>19.73</v>
       </c>
       <c r="M462" s="37" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="N462" s="4">
         <v>2.87</v>
@@ -27232,7 +27218,7 @@
     </row>
     <row r="465" spans="1:22" ht="15">
       <c r="A465" s="21" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="B465" s="9"/>
       <c r="C465" s="9"/>
@@ -27462,7 +27448,7 @@
     </row>
     <row r="470" spans="1:22">
       <c r="A470" s="19" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B470" s="33"/>
       <c r="C470" s="33"/>
@@ -27572,7 +27558,7 @@
         <v>1</v>
       </c>
       <c r="G472" s="37" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="H472" s="4">
         <v>2.8</v>
@@ -27770,7 +27756,7 @@
         <v>0</v>
       </c>
       <c r="G475" s="37" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="H475" s="4">
         <v>4.5</v>
@@ -27902,7 +27888,7 @@
         <v>1</v>
       </c>
       <c r="G477" s="37" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="H477" s="4">
         <v>3.5</v>
@@ -28036,7 +28022,7 @@
         <v>0</v>
       </c>
       <c r="G479" s="37" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="H479" s="4">
         <v>0.5</v>
@@ -28104,7 +28090,7 @@
         <v>0</v>
       </c>
       <c r="G480" s="37" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="H480" s="4">
         <v>2</v>
@@ -28176,7 +28162,7 @@
     </row>
     <row r="482" spans="1:23">
       <c r="A482" s="19" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B482" s="1"/>
       <c r="C482" s="1"/>
@@ -28486,7 +28472,7 @@
         <v>0</v>
       </c>
       <c r="G487" s="37" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="H487" s="4">
         <v>0</v>
@@ -28530,7 +28516,7 @@
         <v>51</v>
       </c>
       <c r="W487" s="4" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
     </row>
     <row r="488" spans="1:23">
@@ -28867,7 +28853,7 @@
     </row>
     <row r="494" spans="1:23" ht="15">
       <c r="A494" s="21" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="B494" s="9"/>
       <c r="C494" s="9"/>
@@ -29097,7 +29083,7 @@
     </row>
     <row r="499" spans="1:22">
       <c r="A499" s="19" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B499" s="33"/>
       <c r="C499" s="33"/>
@@ -29539,7 +29525,7 @@
         <v>1</v>
       </c>
       <c r="G506" s="37" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="H506" s="4">
         <v>2.8</v>
@@ -29555,7 +29541,7 @@
         <v>17.350000000000001</v>
       </c>
       <c r="M506" s="37" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="N506" s="4">
         <v>2.73</v>
@@ -29659,7 +29645,7 @@
         <v>8</v>
       </c>
       <c r="C508" s="4">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D508" s="4">
         <v>1</v>
@@ -29737,7 +29723,7 @@
         <v>0</v>
       </c>
       <c r="G509" s="37" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="H509" s="4">
         <v>3.5</v>
@@ -29753,7 +29739,7 @@
         <v>18.38</v>
       </c>
       <c r="M509" s="37" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="N509" s="4">
         <v>3.33</v>
@@ -29809,7 +29795,7 @@
     </row>
     <row r="511" spans="1:22">
       <c r="A511" s="19" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B511" s="1"/>
       <c r="C511" s="1"/>
@@ -29853,7 +29839,7 @@
         <v>0</v>
       </c>
       <c r="G512" s="37" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="H512" s="4">
         <v>2.5</v>
@@ -30051,7 +30037,7 @@
         <v>2</v>
       </c>
       <c r="G515" s="37" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="H515" s="4">
         <v>2.2000000000000002</v>
@@ -30263,7 +30249,7 @@
         <v>16.7</v>
       </c>
       <c r="M518" s="37" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="N518" s="4">
         <v>3.11</v>
@@ -30293,7 +30279,7 @@
         <v>49</v>
       </c>
       <c r="W518" s="4" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
     </row>
     <row r="519" spans="1:23">
@@ -30496,7 +30482,7 @@
     </row>
     <row r="523" spans="1:23" ht="15">
       <c r="A523" s="21" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="B523" s="9"/>
       <c r="C523" s="9"/>
@@ -30726,7 +30712,7 @@
     </row>
     <row r="528" spans="1:23">
       <c r="A528" s="19" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B528" s="33"/>
       <c r="C528" s="33"/>
@@ -30770,7 +30756,7 @@
         <v>0</v>
       </c>
       <c r="G529" s="37" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="H529" s="4">
         <v>6.2</v>
@@ -30789,7 +30775,7 @@
         <v>3.44</v>
       </c>
       <c r="N529" s="4">
-        <v>2.96</v>
+        <v>3.07</v>
       </c>
       <c r="O529" s="24" t="s">
         <v>46</v>
@@ -30855,7 +30841,7 @@
         <v>3.5</v>
       </c>
       <c r="N530" s="4">
-        <v>3.07</v>
+        <v>2.96</v>
       </c>
       <c r="O530" s="24" t="s">
         <v>46</v>
@@ -31436,7 +31422,7 @@
     </row>
     <row r="540" spans="1:22">
       <c r="A540" s="19" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B540" s="1"/>
       <c r="C540" s="1"/>
@@ -31826,7 +31812,7 @@
         <v>8.1000000000000003E-2</v>
       </c>
       <c r="K546" s="4">
-        <v>25.4</v>
+        <v>25.1</v>
       </c>
       <c r="L546" s="4">
         <v>18.3</v>
@@ -31958,7 +31944,7 @@
         <v>8.5999999999999993E-2</v>
       </c>
       <c r="K548" s="4">
-        <v>23.4</v>
+        <v>23.5</v>
       </c>
       <c r="L548" s="4">
         <v>17</v>
@@ -32026,7 +32012,7 @@
         <v>0.124</v>
       </c>
       <c r="K549" s="4">
-        <v>25.4</v>
+        <v>25.5</v>
       </c>
       <c r="L549" s="4">
         <v>18.600000000000001</v>
@@ -32132,7 +32118,7 @@
     </row>
     <row r="552" spans="1:22" ht="15">
       <c r="A552" s="21" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="B552" s="9"/>
       <c r="C552" s="9"/>
@@ -32362,7 +32348,7 @@
     </row>
     <row r="557" spans="1:22">
       <c r="A557" s="19" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B557" s="33"/>
       <c r="C557" s="33"/>
@@ -32474,7 +32460,7 @@
         <v>0</v>
       </c>
       <c r="G559" s="37" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="H559" s="4">
         <v>3.2</v>
@@ -32540,7 +32526,7 @@
         <v>2</v>
       </c>
       <c r="G560" s="37" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="H560" s="4">
         <v>2.5</v>
@@ -32738,7 +32724,7 @@
         <v>0</v>
       </c>
       <c r="G563" s="37" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="H563" s="4">
         <v>7.8</v>
@@ -32913,7 +32899,7 @@
         <v>2</v>
       </c>
       <c r="T565" s="24" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="U565" s="4">
         <v>23</v>
@@ -33080,7 +33066,7 @@
     </row>
     <row r="569" spans="1:22">
       <c r="A569" s="19" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B569" s="1"/>
       <c r="C569" s="1"/>
@@ -33567,7 +33553,7 @@
         <v>27</v>
       </c>
       <c r="V576" s="24" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="577" spans="1:22">
@@ -33770,7 +33756,7 @@
     </row>
     <row r="581" spans="1:22" ht="15">
       <c r="A581" s="21" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="B581" s="9"/>
       <c r="C581" s="9"/>
@@ -34000,7 +33986,7 @@
     </row>
     <row r="586" spans="1:22">
       <c r="A586" s="19" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B586" s="33"/>
       <c r="C586" s="33"/>
@@ -34083,7 +34069,7 @@
         <v>2</v>
       </c>
       <c r="T587" s="24" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="U587" s="4">
         <v>25</v>
@@ -34112,7 +34098,7 @@
         <v>0</v>
       </c>
       <c r="G588" s="37" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="H588" s="4">
         <v>2</v>
@@ -34130,7 +34116,7 @@
         <v>18.88</v>
       </c>
       <c r="M588" s="37" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="N588" s="4">
         <v>2.61</v>
@@ -34180,7 +34166,7 @@
         <v>0</v>
       </c>
       <c r="G589" s="37" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="H589" s="4">
         <v>5.4</v>
@@ -34269,8 +34255,8 @@
       <c r="N590" s="4">
         <v>2.74</v>
       </c>
-      <c r="O590" s="24" t="s">
-        <v>46</v>
+      <c r="O590" s="4" t="s">
+        <v>7</v>
       </c>
       <c r="P590" s="24" t="s">
         <v>46</v>
@@ -34314,7 +34300,7 @@
         <v>0</v>
       </c>
       <c r="G591" s="37" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="H591" s="4">
         <v>5.6</v>
@@ -34335,8 +34321,8 @@
       <c r="N591" s="4">
         <v>2.71</v>
       </c>
-      <c r="O591" s="24" t="s">
-        <v>7</v>
+      <c r="O591" s="4" t="s">
+        <v>46</v>
       </c>
       <c r="P591" s="24" t="s">
         <v>46</v>
@@ -34469,8 +34455,8 @@
       <c r="N593" s="4">
         <v>2.95</v>
       </c>
-      <c r="O593" s="24" t="s">
-        <v>46</v>
+      <c r="O593" s="4" t="s">
+        <v>7</v>
       </c>
       <c r="P593" s="24" t="s">
         <v>46</v>
@@ -34537,8 +34523,8 @@
       <c r="N594" s="4">
         <v>2.68</v>
       </c>
-      <c r="O594" s="24" t="s">
-        <v>7</v>
+      <c r="O594" s="4" t="s">
+        <v>46</v>
       </c>
       <c r="P594" s="24" t="s">
         <v>46</v>
@@ -34605,8 +34591,8 @@
       <c r="N595" s="4">
         <v>2.7</v>
       </c>
-      <c r="O595" s="24" t="s">
-        <v>46</v>
+      <c r="O595" s="4" t="s">
+        <v>7</v>
       </c>
       <c r="P595" s="24" t="s">
         <v>46</v>
@@ -34650,7 +34636,7 @@
         <v>0</v>
       </c>
       <c r="G596" s="37" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="H596" s="4">
         <v>3.9</v>
@@ -34722,7 +34708,7 @@
     </row>
     <row r="598" spans="1:22">
       <c r="A598" s="19" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B598" s="1"/>
       <c r="C598" s="1"/>
@@ -34766,7 +34752,7 @@
         <v>0</v>
       </c>
       <c r="G599" s="37" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="H599" s="4">
         <v>2.8</v>
@@ -34832,7 +34818,7 @@
         <v>0</v>
       </c>
       <c r="G600" s="37" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="H600" s="4">
         <v>2.7</v>
@@ -34848,7 +34834,7 @@
         <v>15.79</v>
       </c>
       <c r="M600" s="37" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="N600" s="4">
         <v>3.24</v>
@@ -35410,7 +35396,7 @@
     </row>
     <row r="610" spans="1:22" ht="15">
       <c r="A610" s="21" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="B610" s="9"/>
       <c r="C610" s="9"/>
@@ -35640,7 +35626,7 @@
     </row>
     <row r="615" spans="1:22">
       <c r="A615" s="19" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B615" s="33"/>
       <c r="C615" s="33"/>
@@ -35818,7 +35804,7 @@
         <v>1</v>
       </c>
       <c r="G618" s="37" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="H618" s="4">
         <v>2.5</v>
@@ -35857,7 +35843,7 @@
         <v>2</v>
       </c>
       <c r="T618" s="24" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="U618" s="4">
         <v>30</v>
@@ -35892,7 +35878,7 @@
         <v>5.9</v>
       </c>
       <c r="I619" s="1" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="J619" s="4">
         <v>0.14099999999999999</v>
@@ -36020,7 +36006,7 @@
         <v>0</v>
       </c>
       <c r="G621" s="37" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="H621" s="4">
         <v>1.9</v>
@@ -36294,7 +36280,7 @@
         <v>8</v>
       </c>
       <c r="I625" s="4" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="J625" s="4">
         <v>0.17899999999999999</v>
@@ -36362,7 +36348,7 @@
     </row>
     <row r="627" spans="1:22">
       <c r="A627" s="19" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B627" s="1"/>
       <c r="C627" s="1"/>
@@ -36485,7 +36471,7 @@
         <v>24.2</v>
       </c>
       <c r="L629" s="4">
-        <v>15.3</v>
+        <v>18.3</v>
       </c>
       <c r="M629" s="4">
         <v>2.71</v>
@@ -36723,7 +36709,7 @@
         <v>6</v>
       </c>
       <c r="B633" s="4">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C633" s="4">
         <v>4</v>
@@ -36870,7 +36856,7 @@
         <v>1</v>
       </c>
       <c r="G635" s="37" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="H635" s="4">
         <v>2.1</v>
@@ -36930,7 +36916,7 @@
         <v>1</v>
       </c>
       <c r="E636" s="4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F636" s="4">
         <v>1</v>
@@ -37002,7 +36988,7 @@
         <v>0</v>
       </c>
       <c r="G637" s="37" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="H637" s="4">
         <v>3.1</v>
@@ -37050,7 +37036,7 @@
     </row>
     <row r="639" spans="1:22" ht="15">
       <c r="A639" s="21" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="B639" s="9"/>
       <c r="C639" s="9"/>
@@ -37280,7 +37266,7 @@
     </row>
     <row r="644" spans="1:22">
       <c r="A644" s="19" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B644" s="33"/>
       <c r="C644" s="33"/>
@@ -37456,12 +37442,14 @@
         <v>0</v>
       </c>
       <c r="G647" s="37" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="H647" s="4">
         <v>6.4</v>
       </c>
-      <c r="I647" s="1"/>
+      <c r="I647" s="1">
+        <v>1.7</v>
+      </c>
       <c r="J647" s="4">
         <v>0.17499999999999999</v>
       </c>
@@ -37475,7 +37463,7 @@
         <v>2.68</v>
       </c>
       <c r="N647" s="4">
-        <v>2.63</v>
+        <v>2.83</v>
       </c>
       <c r="O647" s="24" t="s">
         <v>25</v>
@@ -37789,9 +37777,11 @@
         <v>4.28</v>
       </c>
       <c r="H652" s="4">
-        <v>6</v>
-      </c>
-      <c r="I652" s="1"/>
+        <v>5</v>
+      </c>
+      <c r="I652" s="1">
+        <v>1.5</v>
+      </c>
       <c r="J652" s="4">
         <v>7.0000000000000007E-2</v>
       </c>
@@ -37855,7 +37845,7 @@
         <v>8.08</v>
       </c>
       <c r="H653" s="4">
-        <v>14.4</v>
+        <v>3.3</v>
       </c>
       <c r="I653" s="1"/>
       <c r="J653" s="4">
@@ -37990,7 +37980,7 @@
     </row>
     <row r="656" spans="1:22">
       <c r="A656" s="19" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B656" s="1"/>
       <c r="C656" s="1"/>
@@ -38034,7 +38024,7 @@
         <v>0</v>
       </c>
       <c r="G657" s="37" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="H657" s="4">
         <v>4</v>
@@ -38100,7 +38090,7 @@
         <v>0</v>
       </c>
       <c r="G658" s="37" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="H658" s="4">
         <v>3.1</v>
@@ -38432,7 +38422,7 @@
         <v>0</v>
       </c>
       <c r="G663" s="37" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="H663" s="4">
         <v>1.5</v>
@@ -38450,7 +38440,7 @@
         <v>19.12</v>
       </c>
       <c r="M663" s="37" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="N663" s="4">
         <v>2.92</v>
@@ -38500,7 +38490,7 @@
         <v>0</v>
       </c>
       <c r="G664" s="37" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="H664" s="4">
         <v>10.4</v>
@@ -38516,7 +38506,7 @@
         <v>19.190000000000001</v>
       </c>
       <c r="M664" s="37" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="N664" s="4">
         <v>3.21</v>
@@ -38566,7 +38556,7 @@
         <v>0</v>
       </c>
       <c r="G665" s="37" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="H665" s="4">
         <v>3.9</v>
@@ -38582,7 +38572,7 @@
         <v>16.46</v>
       </c>
       <c r="M665" s="37" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="N665" s="4">
         <v>3.23</v>
@@ -38680,7 +38670,7 @@
     </row>
     <row r="668" spans="1:22" ht="15">
       <c r="A668" s="21" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="B668" s="9"/>
       <c r="C668" s="9"/>
@@ -38910,7 +38900,7 @@
     </row>
     <row r="673" spans="1:22">
       <c r="A673" s="19" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B673" s="33"/>
       <c r="C673" s="33"/>
@@ -39020,7 +39010,7 @@
         <v>0</v>
       </c>
       <c r="G675" s="37" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="H675" s="4">
         <v>3.5</v>
@@ -39154,7 +39144,7 @@
         <v>0</v>
       </c>
       <c r="G677" s="37" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="H677" s="4">
         <v>4.2</v>
@@ -39355,11 +39345,11 @@
         <v>4.7</v>
       </c>
       <c r="H680" s="24" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="I680" s="1"/>
       <c r="J680" s="1" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="K680" s="4">
         <v>22.1</v>
@@ -39418,7 +39408,7 @@
         <v>0</v>
       </c>
       <c r="G681" s="37" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="H681" s="4">
         <v>5.8</v>
@@ -39624,7 +39614,7 @@
     </row>
     <row r="685" spans="1:22">
       <c r="A685" s="19" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B685" s="1"/>
       <c r="C685" s="1"/>
@@ -39755,8 +39745,8 @@
       <c r="N687" s="4">
         <v>2.85</v>
       </c>
-      <c r="O687" s="24" t="s">
-        <v>229</v>
+      <c r="O687" s="4" t="s">
+        <v>7</v>
       </c>
       <c r="P687" s="24" t="s">
         <v>46</v>
@@ -39905,7 +39895,7 @@
         <v>2</v>
       </c>
       <c r="T689" s="24" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="U689" s="4">
         <v>15</v>
@@ -39955,8 +39945,8 @@
       <c r="N690" s="4">
         <v>2.82</v>
       </c>
-      <c r="O690" s="24" t="s">
-        <v>230</v>
+      <c r="O690" s="4" t="s">
+        <v>46</v>
       </c>
       <c r="P690" s="24" t="s">
         <v>46</v>
@@ -40103,7 +40093,7 @@
         <v>1</v>
       </c>
       <c r="T692" s="24" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="U692" s="4">
         <v>28</v>
@@ -40132,7 +40122,7 @@
         <v>1</v>
       </c>
       <c r="G693" s="37" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="H693" s="4">
         <v>0.7</v>
@@ -40219,8 +40209,8 @@
       <c r="N694" s="4">
         <v>2.92</v>
       </c>
-      <c r="O694" s="24" t="s">
-        <v>230</v>
+      <c r="O694" s="4" t="s">
+        <v>46</v>
       </c>
       <c r="P694" s="24" t="s">
         <v>46</v>
@@ -40312,7 +40302,7 @@
     </row>
     <row r="697" spans="1:22" ht="15">
       <c r="A697" s="21" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="B697" s="9"/>
       <c r="C697" s="9"/>
@@ -40542,7 +40532,7 @@
     </row>
     <row r="702" spans="1:22">
       <c r="A702" s="19" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="B702" s="33"/>
       <c r="C702" s="33"/>
@@ -40652,7 +40642,7 @@
         <v>0</v>
       </c>
       <c r="G704" s="37" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="H704" s="4">
         <v>3.4</v>
@@ -40718,7 +40708,7 @@
         <v>0</v>
       </c>
       <c r="G705" s="37" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="H705" s="4">
         <v>3.5</v>
@@ -40784,7 +40774,7 @@
         <v>0</v>
       </c>
       <c r="G706" s="37" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H706" s="4">
         <v>0.2</v>
@@ -41114,7 +41104,7 @@
         <v>0</v>
       </c>
       <c r="G711" s="37" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="H711" s="4">
         <v>5</v>
@@ -41180,7 +41170,7 @@
         <v>1</v>
       </c>
       <c r="G712" s="37" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="H712" s="4">
         <v>3.4</v>
@@ -41252,7 +41242,7 @@
     </row>
     <row r="714" spans="1:22">
       <c r="A714" s="19" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="B714" s="1"/>
       <c r="C714" s="1"/>
@@ -41362,7 +41352,7 @@
         <v>0</v>
       </c>
       <c r="G716" s="37" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="H716" s="4">
         <v>2.5</v>
@@ -41428,7 +41418,7 @@
         <v>0</v>
       </c>
       <c r="G717" s="37" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="H717" s="4">
         <v>1.4</v>
@@ -41562,7 +41552,7 @@
         <v>0</v>
       </c>
       <c r="G719" s="37" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="H719" s="4">
         <v>5.7</v>
@@ -41628,7 +41618,7 @@
         <v>0</v>
       </c>
       <c r="G720" s="37" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="H720" s="4">
         <v>3.3</v>
@@ -41760,7 +41750,7 @@
         <v>0</v>
       </c>
       <c r="G722" s="37" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="H722" s="4">
         <v>3.6</v>
@@ -41942,7 +41932,7 @@
     </row>
     <row r="726" spans="1:22" ht="15">
       <c r="A726" s="21" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="B726" s="9"/>
       <c r="C726" s="9"/>
@@ -42172,7 +42162,7 @@
     </row>
     <row r="731" spans="1:22">
       <c r="A731" s="19" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="B731" s="33"/>
       <c r="C731" s="33"/>
@@ -42253,7 +42243,7 @@
         <v>2</v>
       </c>
       <c r="T732" s="24" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="U732" s="4">
         <v>22</v>
@@ -42385,7 +42375,7 @@
         <v>2</v>
       </c>
       <c r="T734" s="24" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="U734" s="4">
         <v>17</v>
@@ -42516,8 +42506,8 @@
       <c r="S736" s="5">
         <v>2</v>
       </c>
-      <c r="T736" s="24" t="s">
-        <v>241</v>
+      <c r="T736" s="4" t="s">
+        <v>57</v>
       </c>
       <c r="U736" s="4">
         <v>25</v>
@@ -42546,7 +42536,7 @@
         <v>0</v>
       </c>
       <c r="G737" s="37" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="H737" s="4">
         <v>2.9</v>
@@ -42583,7 +42573,7 @@
         <v>1</v>
       </c>
       <c r="T737" s="24" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="U737" s="4">
         <v>16</v>
@@ -42678,7 +42668,7 @@
         <v>0</v>
       </c>
       <c r="G739" s="37" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="H739" s="4">
         <v>2.1</v>
@@ -42886,7 +42876,7 @@
     </row>
     <row r="743" spans="1:22">
       <c r="A743" s="19" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="B743" s="1"/>
       <c r="C743" s="1"/>
@@ -42930,7 +42920,7 @@
         <v>0</v>
       </c>
       <c r="G744" s="37" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="H744" s="4">
         <v>2.6</v>
@@ -43060,7 +43050,7 @@
         <v>0</v>
       </c>
       <c r="G746" s="37" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="H746" s="4">
         <v>3.4</v>
@@ -43126,7 +43116,7 @@
         <v>0</v>
       </c>
       <c r="G747" s="37" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="H747" s="4">
         <v>5.5</v>
@@ -43192,7 +43182,7 @@
         <v>0</v>
       </c>
       <c r="G748" s="37" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="H748" s="4">
         <v>5</v>
@@ -43386,7 +43376,7 @@
         <v>0</v>
       </c>
       <c r="G751" s="37" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="H751" s="4">
         <v>2.4</v>
@@ -43516,7 +43506,7 @@
         <v>0</v>
       </c>
       <c r="G753" s="37" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="H753" s="4">
         <v>5</v>
@@ -43564,7 +43554,7 @@
     </row>
     <row r="755" spans="1:22" ht="15">
       <c r="A755" s="21" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="B755" s="9"/>
       <c r="C755" s="9"/>
@@ -43794,7 +43784,7 @@
     </row>
     <row r="760" spans="1:22">
       <c r="A760" s="19" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="B760" s="33"/>
       <c r="C760" s="33"/>
@@ -43838,7 +43828,7 @@
         <v>0</v>
       </c>
       <c r="G761" s="37" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="H761" s="4">
         <v>3.1</v>
@@ -44168,7 +44158,7 @@
         <v>0</v>
       </c>
       <c r="G766" s="37" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="H766" s="4">
         <v>3.3</v>
@@ -44219,7 +44209,7 @@
         <v>7</v>
       </c>
       <c r="B767" s="4">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C767" s="4">
         <v>3</v>
@@ -44310,7 +44300,7 @@
         <v>4.4999999999999998E-2</v>
       </c>
       <c r="K768" s="4">
-        <v>24.6</v>
+        <v>24.3</v>
       </c>
       <c r="L768" s="4">
         <v>16.53</v>
@@ -44508,7 +44498,7 @@
     </row>
     <row r="772" spans="1:22">
       <c r="A772" s="19" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="B772" s="1"/>
       <c r="C772" s="1"/>
@@ -44684,7 +44674,7 @@
         <v>0</v>
       </c>
       <c r="G775" s="37" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="H775" s="4">
         <v>1.9</v>
@@ -45021,7 +45011,7 @@
       </c>
       <c r="I780" s="1"/>
       <c r="J780" s="4" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="K780" s="4">
         <v>30.85</v>
@@ -45087,7 +45077,7 @@
       </c>
       <c r="I781" s="1"/>
       <c r="J781" s="4" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="K781" s="4">
         <v>22.31</v>
@@ -45194,7 +45184,7 @@
     </row>
     <row r="784" spans="1:22" ht="15">
       <c r="A784" s="21" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="B784" s="9"/>
       <c r="C784" s="9"/>
@@ -45424,7 +45414,7 @@
     </row>
     <row r="789" spans="1:22">
       <c r="A789" s="19" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="B789" s="33"/>
       <c r="C789" s="33"/>
@@ -46138,7 +46128,7 @@
     </row>
     <row r="801" spans="1:22">
       <c r="A801" s="19" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="B801" s="1"/>
       <c r="C801" s="1"/>
@@ -46838,18 +46828,18 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="A22:T22"/>
+    <mergeCell ref="A4:T4"/>
+    <mergeCell ref="A3:T3"/>
+    <mergeCell ref="A20:T20"/>
+    <mergeCell ref="A21:T21"/>
+    <mergeCell ref="A10:T10"/>
     <mergeCell ref="K90:M90"/>
     <mergeCell ref="O31:P31"/>
     <mergeCell ref="K32:M32"/>
     <mergeCell ref="O60:P60"/>
     <mergeCell ref="K61:M61"/>
     <mergeCell ref="O89:P89"/>
-    <mergeCell ref="A22:T22"/>
-    <mergeCell ref="A4:T4"/>
-    <mergeCell ref="A3:T3"/>
-    <mergeCell ref="A20:T20"/>
-    <mergeCell ref="A21:T21"/>
-    <mergeCell ref="A10:T10"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait"/>

--- a/Data/phenotypic data/RawData/2011 Data/BogUpper5-R8.xlsx
+++ b/Data/phenotypic data/RawData/2011 Data/BogUpper5-R8.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="28125"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="160" yWindow="100" windowWidth="25440" windowHeight="18140"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16060"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1553,20 +1553,20 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" wrapText="1"/>
       <protection locked="0"/>
     </xf>
   </cellXfs>
@@ -1903,8 +1903,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W811"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A793" workbookViewId="0">
-      <selection activeCell="V812" sqref="V812"/>
+    <sheetView tabSelected="1" topLeftCell="A543" workbookViewId="0">
+      <selection activeCell="M561" sqref="M561"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -1964,52 +1964,52 @@
       <c r="T2" s="16"/>
     </row>
     <row r="3" spans="1:20">
-      <c r="A3" s="65" t="s">
+      <c r="A3" s="63" t="s">
         <v>256</v>
       </c>
-      <c r="B3" s="65"/>
-      <c r="C3" s="65"/>
-      <c r="D3" s="65"/>
-      <c r="E3" s="65"/>
-      <c r="F3" s="65"/>
-      <c r="G3" s="65"/>
-      <c r="H3" s="65"/>
-      <c r="I3" s="65"/>
-      <c r="J3" s="65"/>
-      <c r="K3" s="65"/>
-      <c r="L3" s="65"/>
-      <c r="M3" s="65"/>
-      <c r="N3" s="65"/>
-      <c r="O3" s="65"/>
-      <c r="P3" s="65"/>
-      <c r="Q3" s="65"/>
-      <c r="R3" s="65"/>
-      <c r="S3" s="65"/>
-      <c r="T3" s="65"/>
+      <c r="B3" s="63"/>
+      <c r="C3" s="63"/>
+      <c r="D3" s="63"/>
+      <c r="E3" s="63"/>
+      <c r="F3" s="63"/>
+      <c r="G3" s="63"/>
+      <c r="H3" s="63"/>
+      <c r="I3" s="63"/>
+      <c r="J3" s="63"/>
+      <c r="K3" s="63"/>
+      <c r="L3" s="63"/>
+      <c r="M3" s="63"/>
+      <c r="N3" s="63"/>
+      <c r="O3" s="63"/>
+      <c r="P3" s="63"/>
+      <c r="Q3" s="63"/>
+      <c r="R3" s="63"/>
+      <c r="S3" s="63"/>
+      <c r="T3" s="63"/>
     </row>
     <row r="4" spans="1:20">
-      <c r="A4" s="65" t="s">
+      <c r="A4" s="63" t="s">
         <v>257</v>
       </c>
-      <c r="B4" s="65"/>
-      <c r="C4" s="65"/>
-      <c r="D4" s="65"/>
-      <c r="E4" s="65"/>
-      <c r="F4" s="65"/>
-      <c r="G4" s="65"/>
-      <c r="H4" s="65"/>
-      <c r="I4" s="65"/>
-      <c r="J4" s="65"/>
-      <c r="K4" s="65"/>
-      <c r="L4" s="65"/>
-      <c r="M4" s="65"/>
-      <c r="N4" s="65"/>
-      <c r="O4" s="65"/>
-      <c r="P4" s="65"/>
-      <c r="Q4" s="65"/>
-      <c r="R4" s="65"/>
-      <c r="S4" s="65"/>
-      <c r="T4" s="65"/>
+      <c r="B4" s="63"/>
+      <c r="C4" s="63"/>
+      <c r="D4" s="63"/>
+      <c r="E4" s="63"/>
+      <c r="F4" s="63"/>
+      <c r="G4" s="63"/>
+      <c r="H4" s="63"/>
+      <c r="I4" s="63"/>
+      <c r="J4" s="63"/>
+      <c r="K4" s="63"/>
+      <c r="L4" s="63"/>
+      <c r="M4" s="63"/>
+      <c r="N4" s="63"/>
+      <c r="O4" s="63"/>
+      <c r="P4" s="63"/>
+      <c r="Q4" s="63"/>
+      <c r="R4" s="63"/>
+      <c r="S4" s="63"/>
+      <c r="T4" s="63"/>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" s="4" t="s">
@@ -2130,28 +2130,28 @@
       <c r="T9" s="16"/>
     </row>
     <row r="10" spans="1:20">
-      <c r="A10" s="64" t="s">
+      <c r="A10" s="62" t="s">
         <v>262</v>
       </c>
-      <c r="B10" s="64"/>
-      <c r="C10" s="64"/>
-      <c r="D10" s="64"/>
-      <c r="E10" s="64"/>
-      <c r="F10" s="64"/>
-      <c r="G10" s="64"/>
-      <c r="H10" s="64"/>
-      <c r="I10" s="64"/>
-      <c r="J10" s="64"/>
-      <c r="K10" s="64"/>
-      <c r="L10" s="64"/>
-      <c r="M10" s="64"/>
-      <c r="N10" s="64"/>
-      <c r="O10" s="64"/>
-      <c r="P10" s="64"/>
-      <c r="Q10" s="64"/>
-      <c r="R10" s="64"/>
-      <c r="S10" s="64"/>
-      <c r="T10" s="64"/>
+      <c r="B10" s="62"/>
+      <c r="C10" s="62"/>
+      <c r="D10" s="62"/>
+      <c r="E10" s="62"/>
+      <c r="F10" s="62"/>
+      <c r="G10" s="62"/>
+      <c r="H10" s="62"/>
+      <c r="I10" s="62"/>
+      <c r="J10" s="62"/>
+      <c r="K10" s="62"/>
+      <c r="L10" s="62"/>
+      <c r="M10" s="62"/>
+      <c r="N10" s="62"/>
+      <c r="O10" s="62"/>
+      <c r="P10" s="62"/>
+      <c r="Q10" s="62"/>
+      <c r="R10" s="62"/>
+      <c r="S10" s="62"/>
+      <c r="T10" s="62"/>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" s="51"/>
@@ -2370,76 +2370,76 @@
       <c r="T19" s="5"/>
     </row>
     <row r="20" spans="1:22">
-      <c r="A20" s="64" t="s">
+      <c r="A20" s="62" t="s">
         <v>271</v>
       </c>
-      <c r="B20" s="64"/>
-      <c r="C20" s="64"/>
-      <c r="D20" s="64"/>
-      <c r="E20" s="64"/>
-      <c r="F20" s="64"/>
-      <c r="G20" s="64"/>
-      <c r="H20" s="64"/>
-      <c r="I20" s="64"/>
-      <c r="J20" s="64"/>
-      <c r="K20" s="64"/>
-      <c r="L20" s="64"/>
-      <c r="M20" s="64"/>
-      <c r="N20" s="64"/>
-      <c r="O20" s="64"/>
-      <c r="P20" s="64"/>
-      <c r="Q20" s="64"/>
-      <c r="R20" s="64"/>
-      <c r="S20" s="64"/>
-      <c r="T20" s="64"/>
+      <c r="B20" s="62"/>
+      <c r="C20" s="62"/>
+      <c r="D20" s="62"/>
+      <c r="E20" s="62"/>
+      <c r="F20" s="62"/>
+      <c r="G20" s="62"/>
+      <c r="H20" s="62"/>
+      <c r="I20" s="62"/>
+      <c r="J20" s="62"/>
+      <c r="K20" s="62"/>
+      <c r="L20" s="62"/>
+      <c r="M20" s="62"/>
+      <c r="N20" s="62"/>
+      <c r="O20" s="62"/>
+      <c r="P20" s="62"/>
+      <c r="Q20" s="62"/>
+      <c r="R20" s="62"/>
+      <c r="S20" s="62"/>
+      <c r="T20" s="62"/>
     </row>
     <row r="21" spans="1:22">
-      <c r="A21" s="64" t="s">
+      <c r="A21" s="62" t="s">
         <v>272</v>
       </c>
-      <c r="B21" s="64"/>
-      <c r="C21" s="64"/>
-      <c r="D21" s="64"/>
-      <c r="E21" s="64"/>
-      <c r="F21" s="64"/>
-      <c r="G21" s="64"/>
-      <c r="H21" s="64"/>
-      <c r="I21" s="64"/>
-      <c r="J21" s="64"/>
-      <c r="K21" s="64"/>
-      <c r="L21" s="64"/>
-      <c r="M21" s="64"/>
-      <c r="N21" s="64"/>
-      <c r="O21" s="64"/>
-      <c r="P21" s="64"/>
-      <c r="Q21" s="64"/>
-      <c r="R21" s="64"/>
-      <c r="S21" s="64"/>
-      <c r="T21" s="64"/>
+      <c r="B21" s="62"/>
+      <c r="C21" s="62"/>
+      <c r="D21" s="62"/>
+      <c r="E21" s="62"/>
+      <c r="F21" s="62"/>
+      <c r="G21" s="62"/>
+      <c r="H21" s="62"/>
+      <c r="I21" s="62"/>
+      <c r="J21" s="62"/>
+      <c r="K21" s="62"/>
+      <c r="L21" s="62"/>
+      <c r="M21" s="62"/>
+      <c r="N21" s="62"/>
+      <c r="O21" s="62"/>
+      <c r="P21" s="62"/>
+      <c r="Q21" s="62"/>
+      <c r="R21" s="62"/>
+      <c r="S21" s="62"/>
+      <c r="T21" s="62"/>
     </row>
     <row r="22" spans="1:22">
-      <c r="A22" s="64" t="s">
+      <c r="A22" s="62" t="s">
         <v>273</v>
       </c>
-      <c r="B22" s="64"/>
-      <c r="C22" s="64"/>
-      <c r="D22" s="64"/>
-      <c r="E22" s="64"/>
-      <c r="F22" s="64"/>
-      <c r="G22" s="64"/>
-      <c r="H22" s="64"/>
-      <c r="I22" s="64"/>
-      <c r="J22" s="64"/>
-      <c r="K22" s="64"/>
-      <c r="L22" s="64"/>
-      <c r="M22" s="64"/>
-      <c r="N22" s="64"/>
-      <c r="O22" s="64"/>
-      <c r="P22" s="64"/>
-      <c r="Q22" s="64"/>
-      <c r="R22" s="64"/>
-      <c r="S22" s="64"/>
-      <c r="T22" s="64"/>
+      <c r="B22" s="62"/>
+      <c r="C22" s="62"/>
+      <c r="D22" s="62"/>
+      <c r="E22" s="62"/>
+      <c r="F22" s="62"/>
+      <c r="G22" s="62"/>
+      <c r="H22" s="62"/>
+      <c r="I22" s="62"/>
+      <c r="J22" s="62"/>
+      <c r="K22" s="62"/>
+      <c r="L22" s="62"/>
+      <c r="M22" s="62"/>
+      <c r="N22" s="62"/>
+      <c r="O22" s="62"/>
+      <c r="P22" s="62"/>
+      <c r="Q22" s="62"/>
+      <c r="R22" s="62"/>
+      <c r="S22" s="62"/>
+      <c r="T22" s="62"/>
     </row>
     <row r="23" spans="1:22">
       <c r="A23" s="4"/>
@@ -2582,10 +2582,10 @@
       <c r="L31" s="20"/>
       <c r="M31" s="16"/>
       <c r="N31" s="41"/>
-      <c r="O31" s="63" t="s">
-        <v>3</v>
-      </c>
-      <c r="P31" s="63"/>
+      <c r="O31" s="65" t="s">
+        <v>3</v>
+      </c>
+      <c r="P31" s="65"/>
       <c r="Q31" s="6"/>
       <c r="R31" s="1"/>
       <c r="S31" s="1"/>
@@ -2606,11 +2606,11 @@
       </c>
       <c r="I32" s="1"/>
       <c r="J32" s="23"/>
-      <c r="K32" s="62" t="s">
+      <c r="K32" s="64" t="s">
         <v>5</v>
       </c>
-      <c r="L32" s="62"/>
-      <c r="M32" s="62"/>
+      <c r="L32" s="64"/>
+      <c r="M32" s="64"/>
       <c r="N32" s="44" t="s">
         <v>6</v>
       </c>
@@ -4248,10 +4248,10 @@
       <c r="L60" s="20"/>
       <c r="M60" s="16"/>
       <c r="N60" s="41"/>
-      <c r="O60" s="63" t="s">
-        <v>3</v>
-      </c>
-      <c r="P60" s="63"/>
+      <c r="O60" s="65" t="s">
+        <v>3</v>
+      </c>
+      <c r="P60" s="65"/>
       <c r="Q60" s="6"/>
       <c r="R60" s="1"/>
       <c r="S60" s="1"/>
@@ -4272,11 +4272,11 @@
       </c>
       <c r="I61" s="1"/>
       <c r="J61" s="23"/>
-      <c r="K61" s="62" t="s">
+      <c r="K61" s="64" t="s">
         <v>5</v>
       </c>
-      <c r="L61" s="62"/>
-      <c r="M61" s="62"/>
+      <c r="L61" s="64"/>
+      <c r="M61" s="64"/>
       <c r="N61" s="44" t="s">
         <v>6</v>
       </c>
@@ -5914,10 +5914,10 @@
       <c r="L89" s="20"/>
       <c r="M89" s="16"/>
       <c r="N89" s="41"/>
-      <c r="O89" s="63" t="s">
-        <v>3</v>
-      </c>
-      <c r="P89" s="63"/>
+      <c r="O89" s="65" t="s">
+        <v>3</v>
+      </c>
+      <c r="P89" s="65"/>
       <c r="Q89" s="6"/>
       <c r="R89" s="1"/>
       <c r="S89" s="1"/>
@@ -5938,11 +5938,11 @@
       </c>
       <c r="I90" s="1"/>
       <c r="J90" s="23"/>
-      <c r="K90" s="62" t="s">
+      <c r="K90" s="64" t="s">
         <v>5</v>
       </c>
-      <c r="L90" s="62"/>
-      <c r="M90" s="62"/>
+      <c r="L90" s="64"/>
+      <c r="M90" s="64"/>
       <c r="N90" s="44" t="s">
         <v>6</v>
       </c>
@@ -32410,7 +32410,7 @@
         <v>18.59</v>
       </c>
       <c r="M558" s="4">
-        <v>27.8</v>
+        <v>2.78</v>
       </c>
       <c r="N558" s="4">
         <v>3.58</v>
@@ -46828,18 +46828,18 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="K90:M90"/>
+    <mergeCell ref="O31:P31"/>
+    <mergeCell ref="K32:M32"/>
+    <mergeCell ref="O60:P60"/>
+    <mergeCell ref="K61:M61"/>
+    <mergeCell ref="O89:P89"/>
     <mergeCell ref="A22:T22"/>
     <mergeCell ref="A4:T4"/>
     <mergeCell ref="A3:T3"/>
     <mergeCell ref="A20:T20"/>
     <mergeCell ref="A21:T21"/>
     <mergeCell ref="A10:T10"/>
-    <mergeCell ref="K90:M90"/>
-    <mergeCell ref="O31:P31"/>
-    <mergeCell ref="K32:M32"/>
-    <mergeCell ref="O60:P60"/>
-    <mergeCell ref="K61:M61"/>
-    <mergeCell ref="O89:P89"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait"/>
